--- a/data_files/final_dataset/summary.xlsx
+++ b/data_files/final_dataset/summary.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MD NADIM\Documents\NetBeansProjects\FindCochangeByClone\data_files\final_dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A3EC9B-58CA-42D7-BB8B-40454090C246}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30AA62DD-B8F3-4913-B7B9-42001E965D8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CFA1D919-FACA-4B41-A1EB-F46D01834FF9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Cloned Cochange %" sheetId="1" r:id="rId1"/>
+    <sheet name="LineCloneCoverage" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>Subject System</t>
   </si>
@@ -59,12 +62,51 @@
   <si>
     <t>Average Percentage of Cloned Cochange (%)</t>
   </si>
+  <si>
+    <t xml:space="preserve">Tools </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deckard </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConQAT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SimCAD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">iClones </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simian </t>
+  </si>
+  <si>
+    <t>NiCad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#CF </t>
+  </si>
+  <si>
+    <t xml:space="preserve"># LCF </t>
+  </si>
+  <si>
+    <t>SimCAD</t>
+  </si>
+  <si>
+    <t>iClones</t>
+  </si>
+  <si>
+    <t>Simian</t>
+  </si>
+  <si>
+    <t>F1 Score</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +122,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="NimbusRomNo9L-Medi"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="NimbusRomNo9L-Regu"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -89,7 +142,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -97,11 +150,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -111,6 +179,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -127,6 +207,2928 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1400" b="1" i="1" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Number of Clone Fragments in Each Revision</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>LineCloneCoverage!$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#CF </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>LineCloneCoverage!$E$9:$J$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Deckard </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ConQAT </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SimCAD </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>iClones </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Simian </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NiCad</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>LineCloneCoverage!$E$10:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5792</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1747</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>838</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>728</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>635</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-21D5-4800-A048-A2BCB917D69D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="540739256"/>
+        <c:axId val="540736632"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="540739256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540736632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="540736632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540739256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1400" b="1" i="1" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Number of Unique Lines Covered by Clone Fragments in Each Revision</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>LineCloneCoverage!$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># LCF </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>LineCloneCoverage!$E$12:$J$12</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Deckard </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ConQAT </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SimCAD </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>iClones </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Simian </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NiCad</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>LineCloneCoverage!$E$13:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15276</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13471</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13433</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11605</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11239</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5A15-4B39-A5BB-E0EDD1D4237D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="542979672"/>
+        <c:axId val="542980328"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="542979672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="542980328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="542980328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="542979672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>FINAL RANK OF CLONE DETECTORS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-CA" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>(Weighted </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" b="1"/>
+              <a:t>F1 Score)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>LineCloneCoverage!$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F1 Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>LineCloneCoverage!$E$17:$J$17</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Deckard </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ConQAT </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NiCad</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SimCAD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>iClones</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Simian</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>LineCloneCoverage!$E$18:$J$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-874D-49D9-A092-7CF0AA3E1CBD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="544050480"/>
+        <c:axId val="544051792"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="544050480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="544051792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="544051792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="544050480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>204934</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>68982</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>509735</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>145182</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13024E1B-DD33-4C75-91B7-9A93F9C55E84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>207065</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>61291</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>488674</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>137491</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8B7D15D-8A6D-49A4-ABBD-F356D224BF7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>33129</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>3313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314738</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>79513</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEF516B6-8B40-4A38-9000-377AC8188095}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -429,10 +3431,10 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -440,7 +3442,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -451,7 +3453,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -462,7 +3464,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -473,7 +3475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -484,7 +3486,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -495,7 +3497,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -506,7 +3508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -520,4 +3522,168 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D07125-27AA-4DF3-9152-7DF662E6DEA1}">
+  <dimension ref="D9:J18"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="9" spans="4:10">
+      <c r="D9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10">
+      <c r="D10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="5">
+        <v>5792</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1747</v>
+      </c>
+      <c r="G10" s="5">
+        <v>838</v>
+      </c>
+      <c r="H10" s="5">
+        <v>728</v>
+      </c>
+      <c r="I10" s="5">
+        <v>635</v>
+      </c>
+      <c r="J10" s="5">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10">
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="4:10">
+      <c r="D12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10">
+      <c r="D13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="5">
+        <v>15276</v>
+      </c>
+      <c r="F13" s="5">
+        <v>13471</v>
+      </c>
+      <c r="G13" s="5">
+        <v>13433</v>
+      </c>
+      <c r="H13" s="5">
+        <v>11605</v>
+      </c>
+      <c r="I13" s="5">
+        <v>11239</v>
+      </c>
+      <c r="J13" s="5">
+        <v>9875</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10">
+      <c r="D17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10">
+      <c r="D18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>